--- a/plan de trabajo (1).xlsx
+++ b/plan de trabajo (1).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577B334-A8C5-404A-985E-C3031BB109D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Integrantes</t>
   </si>
@@ -68,32 +77,43 @@
   </si>
   <si>
     <t>Clase CInstrucción</t>
+  </si>
+  <si>
+    <t>Hito 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -103,7 +123,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,53 +133,53 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -168,6 +188,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -176,68 +201,84 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -427,177 +468,211 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="50.57"/>
-    <col customWidth="1" min="4" max="4" width="25.43"/>
-    <col customWidth="1" min="5" max="5" width="23.86"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="12"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="12"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21">
-      <c r="E21" s="13"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+    <row r="21" spans="1:5">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plan de trabajo (1).xlsx
+++ b/plan de trabajo (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577B334-A8C5-404A-985E-C3031BB109D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FA068-237C-4FF5-83E1-B7D0A0666936}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,13 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +257,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +484,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -499,179 +502,179 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="3" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan de trabajo (1).xlsx
+++ b/plan de trabajo (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FA068-237C-4FF5-83E1-B7D0A0666936}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47EB488-1935-412E-968F-AA50E9B4DEF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="3564" windowWidth="14808" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Integrantes</t>
   </si>
@@ -28,33 +28,15 @@
     <t>Responsabilidades</t>
   </si>
   <si>
-    <t>Hito 1</t>
-  </si>
-  <si>
-    <t>funciones.h y funciones.cpp</t>
-  </si>
-  <si>
-    <t>Integrante</t>
-  </si>
-  <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
     <t>Abanto Rodríguez, Diego</t>
   </si>
   <si>
     <t>Creación de clases</t>
   </si>
   <si>
-    <t>Clase CProducto</t>
-  </si>
-  <si>
     <t>Patiño Quispe, Lesly</t>
   </si>
   <si>
-    <t>Clase CSlot</t>
-  </si>
-  <si>
     <t>Navarro Muñoz, Lucero</t>
   </si>
   <si>
@@ -64,22 +46,19 @@
     <t>Diagrama de clases</t>
   </si>
   <si>
-    <t>Función lectura()</t>
-  </si>
-  <si>
-    <t>Clase CRobot</t>
-  </si>
-  <si>
-    <t>funciones.cpp</t>
-  </si>
-  <si>
-    <t>Clase CAlmacen</t>
-  </si>
-  <si>
-    <t>Clase CInstrucción</t>
-  </si>
-  <si>
-    <t>Hito 2</t>
+    <t xml:space="preserve">funciones.h </t>
+  </si>
+  <si>
+    <t>Clase Almacen</t>
+  </si>
+  <si>
+    <t>Clase Controlador</t>
+  </si>
+  <si>
+    <t>Clase Robot</t>
+  </si>
+  <si>
+    <t>Clase Instrucción</t>
   </si>
 </sst>
 </file>
@@ -222,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -502,179 +478,128 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:A17"/>
+  <mergeCells count="4">
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan de trabajo (1).xlsx
+++ b/plan de trabajo (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47EB488-1935-412E-968F-AA50E9B4DEF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F301BEA-D181-481B-B7C6-47AAF60EEA68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3564" windowWidth="14808" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Integrantes</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Clase Instrucción</t>
+  </si>
+  <si>
+    <t>Diapositivas</t>
+  </si>
+  <si>
+    <t>Clase Slot</t>
   </si>
 </sst>
 </file>
@@ -111,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,32 +144,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -201,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,35 +189,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +438,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D13" sqref="D1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -471,128 +452,155 @@
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
